--- a/mbs-perturbation/greedy/decisionTree/smote/greedy-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/greedy/decisionTree/smote/greedy-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.7677165354330708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.8441558441558442</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8701298701298701</v>
+        <v>0.8338110207100592</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.91324200913242</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9367681498829039</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.946017474112426</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9624413145539906</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9855769230769231</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9738717339667458</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9826761279585798</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.803088803088803</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.9956709956709957</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.8907922912205567</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9075212647928994</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5077262693156733</v>
+        <v>0.5889212827988338</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6734992679355785</v>
+        <v>0.7332123411978221</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5173160173160174</v>
+        <v>0.648102348372781</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8615452538631347</v>
+        <v>0.8070819890014237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9965367965367966</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9110102001542346</v>
+        <v>0.8757600720847746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8774891774891774</v>
+        <v>0.8636256471893491</v>
       </c>
     </row>
   </sheetData>
